--- a/src/test/java/resources/veriler.xlsx
+++ b/src/test/java/resources/veriler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehmet\Desktop\GuiderSoft Gün Package\com.Guidersoft_TestNG\src\test\java\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Kategori</t>
   </si>
@@ -52,12 +52,25 @@
   </si>
   <si>
     <t>Çerez</t>
+  </si>
+  <si>
+    <t>Yorumlar</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0652F95-45BE-4464-91DC-4A06CE8876DF}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D1:D5"/>
@@ -412,9 +425,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="14.36328125"/>
+    <col min="2" max="2" customWidth="true" width="13.36328125"/>
+    <col min="3" max="3" customWidth="true" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -427,6 +440,9 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -438,6 +454,9 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -449,6 +468,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -459,6 +481,9 @@
       </c>
       <c r="C4" t="s">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
